--- a/data_pulling/team_game_logs_1819/team_game_log_PHX.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_PHX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -274,6 +274,9 @@
     <t>MIA</t>
   </si>
   <si>
+    <t>LAC</t>
+  </si>
+  <si>
     <t>DEN</t>
   </si>
   <si>
@@ -295,9 +298,6 @@
     <t>DET</t>
   </si>
   <si>
-    <t>LAC</t>
-  </si>
-  <si>
     <t>POR</t>
   </si>
   <si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>2018-12-08T02:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-11T02:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-12T01:30:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -734,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV27"/>
+  <dimension ref="A1:BV29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1193,7 +1199,7 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>47602</v>
@@ -1417,7 +1423,7 @@
         <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>47616</v>
@@ -3433,7 +3439,7 @@
         <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>47745</v>
@@ -4329,7 +4335,7 @@
         <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>47811</v>
@@ -4553,7 +4559,7 @@
         <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>47826</v>
@@ -4777,7 +4783,7 @@
         <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19">
         <v>47844</v>
@@ -5001,7 +5007,7 @@
         <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20">
         <v>47856</v>
@@ -5449,7 +5455,7 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D22">
         <v>47884</v>
@@ -6782,6 +6788,454 @@
         <v>74</v>
       </c>
       <c r="BV27">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <v>47968</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>123</v>
+      </c>
+      <c r="K28">
+        <v>123</v>
+      </c>
+      <c r="L28">
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <v>14</v>
+      </c>
+      <c r="N28">
+        <v>15</v>
+      </c>
+      <c r="O28">
+        <v>15</v>
+      </c>
+      <c r="P28">
+        <v>69</v>
+      </c>
+      <c r="Q28">
+        <v>69</v>
+      </c>
+      <c r="R28">
+        <v>38</v>
+      </c>
+      <c r="S28">
+        <v>38</v>
+      </c>
+      <c r="T28">
+        <v>55.1</v>
+      </c>
+      <c r="U28">
+        <v>25</v>
+      </c>
+      <c r="V28">
+        <v>25</v>
+      </c>
+      <c r="W28">
+        <v>9</v>
+      </c>
+      <c r="X28">
+        <v>9</v>
+      </c>
+      <c r="Y28">
+        <v>36</v>
+      </c>
+      <c r="Z28">
+        <v>94</v>
+      </c>
+      <c r="AA28">
+        <v>94</v>
+      </c>
+      <c r="AB28">
+        <v>47</v>
+      </c>
+      <c r="AC28">
+        <v>47</v>
+      </c>
+      <c r="AD28">
+        <v>50</v>
+      </c>
+      <c r="AE28">
+        <v>20</v>
+      </c>
+      <c r="AF28">
+        <v>20</v>
+      </c>
+      <c r="AG28">
+        <v>16</v>
+      </c>
+      <c r="AH28">
+        <v>16</v>
+      </c>
+      <c r="AI28">
+        <v>80</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>29</v>
+      </c>
+      <c r="AT28">
+        <v>21</v>
+      </c>
+      <c r="AU28">
+        <v>21</v>
+      </c>
+      <c r="AV28">
+        <v>29</v>
+      </c>
+      <c r="AW28">
+        <v>29</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>2</v>
+      </c>
+      <c r="BA28">
+        <v>32</v>
+      </c>
+      <c r="BB28">
+        <v>21</v>
+      </c>
+      <c r="BC28">
+        <v>21</v>
+      </c>
+      <c r="BD28">
+        <v>32</v>
+      </c>
+      <c r="BE28">
+        <v>-4</v>
+      </c>
+      <c r="BF28">
+        <v>-4</v>
+      </c>
+      <c r="BG28">
+        <v>31</v>
+      </c>
+      <c r="BH28">
+        <v>31</v>
+      </c>
+      <c r="BI28">
+        <v>119</v>
+      </c>
+      <c r="BJ28">
+        <v>119</v>
+      </c>
+      <c r="BK28">
+        <v>30</v>
+      </c>
+      <c r="BL28">
+        <v>30</v>
+      </c>
+      <c r="BM28">
+        <v>10</v>
+      </c>
+      <c r="BN28">
+        <v>10</v>
+      </c>
+      <c r="BO28">
+        <v>40</v>
+      </c>
+      <c r="BP28">
+        <v>40</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>1</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV28">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:74">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29">
+        <v>47972</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>111</v>
+      </c>
+      <c r="K29">
+        <v>111</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <v>17</v>
+      </c>
+      <c r="O29">
+        <v>17</v>
+      </c>
+      <c r="P29">
+        <v>54</v>
+      </c>
+      <c r="Q29">
+        <v>54</v>
+      </c>
+      <c r="R29">
+        <v>25</v>
+      </c>
+      <c r="S29">
+        <v>25</v>
+      </c>
+      <c r="T29">
+        <v>46.3</v>
+      </c>
+      <c r="U29">
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <v>28</v>
+      </c>
+      <c r="W29">
+        <v>8</v>
+      </c>
+      <c r="X29">
+        <v>8</v>
+      </c>
+      <c r="Y29">
+        <v>28.6</v>
+      </c>
+      <c r="Z29">
+        <v>82</v>
+      </c>
+      <c r="AA29">
+        <v>82</v>
+      </c>
+      <c r="AB29">
+        <v>33</v>
+      </c>
+      <c r="AC29">
+        <v>33</v>
+      </c>
+      <c r="AD29">
+        <v>40.2</v>
+      </c>
+      <c r="AE29">
+        <v>14</v>
+      </c>
+      <c r="AF29">
+        <v>14</v>
+      </c>
+      <c r="AG29">
+        <v>12</v>
+      </c>
+      <c r="AH29">
+        <v>12</v>
+      </c>
+      <c r="AI29">
+        <v>85.7</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>22</v>
+      </c>
+      <c r="AT29">
+        <v>15</v>
+      </c>
+      <c r="AU29">
+        <v>15</v>
+      </c>
+      <c r="AV29">
+        <v>22</v>
+      </c>
+      <c r="AW29">
+        <v>22</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>22</v>
+      </c>
+      <c r="BB29">
+        <v>15</v>
+      </c>
+      <c r="BC29">
+        <v>15</v>
+      </c>
+      <c r="BD29">
+        <v>22</v>
+      </c>
+      <c r="BE29">
+        <v>-25</v>
+      </c>
+      <c r="BF29">
+        <v>-25</v>
+      </c>
+      <c r="BG29">
+        <v>19</v>
+      </c>
+      <c r="BH29">
+        <v>19</v>
+      </c>
+      <c r="BI29">
+        <v>86</v>
+      </c>
+      <c r="BJ29">
+        <v>86</v>
+      </c>
+      <c r="BK29">
+        <v>32</v>
+      </c>
+      <c r="BL29">
+        <v>32</v>
+      </c>
+      <c r="BM29">
+        <v>8</v>
+      </c>
+      <c r="BN29">
+        <v>8</v>
+      </c>
+      <c r="BO29">
+        <v>40</v>
+      </c>
+      <c r="BP29">
+        <v>40</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
+        <v>1</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BT29">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV29">
         <v>104</v>
       </c>
     </row>
